--- a/options.xlsx
+++ b/options.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alltecglobalcom.sharepoint.com/sites/Public/Shared Documents/General/Jacob Wenzel/Development/Bus Bar Configurator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34189418-C0FC-4A8C-A9AB-0D20F2B24549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{34189418-C0FC-4A8C-A9AB-0D20F2B24549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CE878F6-9589-42DF-AB43-0639D89B8E49}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E7DA4301-F2D0-41DA-AAA6-468FF149CEBE}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="18">
   <si>
     <t>Option Type</t>
   </si>
@@ -74,30 +74,6 @@
   </si>
   <si>
     <t>R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conductor Size	</t>
-  </si>
-  <si>
-    <t>2T</t>
-  </si>
-  <si>
-    <t>Conductor Size</t>
-  </si>
-  <si>
-    <t>2/019</t>
-  </si>
-  <si>
-    <t>4/019</t>
-  </si>
-  <si>
-    <t>4/019T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conductor Length &amp; Location </t>
-  </si>
-  <si>
-    <t>Conductor Length &amp; Location</t>
   </si>
 </sst>
 </file>
@@ -958,13 +934,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5814CA13-617B-4D00-BCE9-A3F89B49E954}">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T22" sqref="T22:U22"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1075,15 +1054,15 @@
         <v>9</v>
       </c>
       <c r="B14">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1091,7 +1070,7 @@
         <v>10</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1099,7 +1078,7 @@
         <v>10</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1107,7 +1086,7 @@
         <v>10</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1115,7 +1094,7 @@
         <v>10</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1123,7 +1102,7 @@
         <v>10</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1131,7 +1110,7 @@
         <v>10</v>
       </c>
       <c r="B21">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1139,7 +1118,7 @@
         <v>10</v>
       </c>
       <c r="B22">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1147,7 +1126,7 @@
         <v>10</v>
       </c>
       <c r="B23">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1155,7 +1134,7 @@
         <v>10</v>
       </c>
       <c r="B24">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1163,7 +1142,7 @@
         <v>10</v>
       </c>
       <c r="B25">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1171,7 +1150,7 @@
         <v>10</v>
       </c>
       <c r="B26">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1179,7 +1158,7 @@
         <v>10</v>
       </c>
       <c r="B27">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1187,7 +1166,7 @@
         <v>10</v>
       </c>
       <c r="B28">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1195,7 +1174,7 @@
         <v>10</v>
       </c>
       <c r="B29">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1203,7 +1182,7 @@
         <v>10</v>
       </c>
       <c r="B30">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1211,7 +1190,7 @@
         <v>10</v>
       </c>
       <c r="B31">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1219,7 +1198,7 @@
         <v>10</v>
       </c>
       <c r="B32">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1227,7 +1206,7 @@
         <v>10</v>
       </c>
       <c r="B33">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1235,7 +1214,7 @@
         <v>10</v>
       </c>
       <c r="B34">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1243,7 +1222,7 @@
         <v>10</v>
       </c>
       <c r="B35">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1251,7 +1230,7 @@
         <v>10</v>
       </c>
       <c r="B36">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1259,7 +1238,7 @@
         <v>10</v>
       </c>
       <c r="B37">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1267,7 +1246,7 @@
         <v>10</v>
       </c>
       <c r="B38">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1275,7 +1254,7 @@
         <v>10</v>
       </c>
       <c r="B39">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1283,7 +1262,7 @@
         <v>10</v>
       </c>
       <c r="B40">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1291,7 +1270,7 @@
         <v>10</v>
       </c>
       <c r="B41">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1299,7 +1278,7 @@
         <v>10</v>
       </c>
       <c r="B42">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1307,7 +1286,7 @@
         <v>10</v>
       </c>
       <c r="B43">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1315,15 +1294,15 @@
         <v>10</v>
       </c>
       <c r="B44">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B45" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="B45">
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1331,7 +1310,7 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1339,7 +1318,7 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -1347,7 +1326,7 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -1355,7 +1334,7 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -1363,7 +1342,7 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1371,79 +1350,15 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>20</v>
-      </c>
-      <c r="B53" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>18</v>
-      </c>
-      <c r="B54" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>18</v>
-      </c>
-      <c r="B55" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>24</v>
-      </c>
-      <c r="B56">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>25</v>
-      </c>
-      <c r="B57">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>25</v>
-      </c>
-      <c r="B58">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>25</v>
-      </c>
-      <c r="B59">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>24</v>
-      </c>
-      <c r="B60">
-        <v>72</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1452,6 +1367,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="9a5f82ee-38f6-4434-a1ed-17539db332ac" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d90f2675-8d00-4d1e-beb6-cb722ca2f03e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010001699C651BE69C479C8E275C06E6CEA2" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2c826f7458c87abf71b709ded4cd5272">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d90f2675-8d00-4d1e-beb6-cb722ca2f03e" xmlns:ns3="9a5f82ee-38f6-4434-a1ed-17539db332ac" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="175244315e5d201ea246859da0653bfb" ns2:_="" ns3:_="">
     <xsd:import namespace="d90f2675-8d00-4d1e-beb6-cb722ca2f03e"/>
@@ -1686,27 +1621,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="9a5f82ee-38f6-4434-a1ed-17539db332ac" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d90f2675-8d00-4d1e-beb6-cb722ca2f03e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B562786-7566-447B-9543-5FE3FDE6B7C4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E803101-6D4F-478F-AEB8-E58A918B456A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9a5f82ee-38f6-4434-a1ed-17539db332ac"/>
+    <ds:schemaRef ds:uri="d90f2675-8d00-4d1e-beb6-cb722ca2f03e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0A167D5-F56C-48F6-B011-0C92381CCC5A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1723,23 +1657,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E803101-6D4F-478F-AEB8-E58A918B456A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9a5f82ee-38f6-4434-a1ed-17539db332ac"/>
-    <ds:schemaRef ds:uri="d90f2675-8d00-4d1e-beb6-cb722ca2f03e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B562786-7566-447B-9543-5FE3FDE6B7C4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>